--- a/TestProject/TestProject/wwwroot/upload/testtest.xlsx
+++ b/TestProject/TestProject/wwwroot/upload/testtest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정동구\Downloads\TestProject\TestProject\wwwroot\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FD8F8A-C8CE-4839-AC19-E74365EAFFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66A0648-AABB-4FF4-A738-637A8CBA7FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="20660" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="99">
   <si>
     <t>입력하려는 졸업기준의 학과(전공)명을 선택하세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,6 +384,41 @@
   <si>
     <t>구 과목명</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSE2021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSE2022</t>
+  </si>
+  <si>
+    <t>CSE2023</t>
+  </si>
+  <si>
+    <t>CSE2024</t>
+  </si>
+  <si>
+    <t>CSE2025</t>
+  </si>
+  <si>
+    <t>CSE2026</t>
+  </si>
+  <si>
+    <t>CSE2027</t>
+  </si>
+  <si>
+    <t>CSE2028</t>
+  </si>
+  <si>
+    <t>CSE2029</t>
+  </si>
+  <si>
+    <t>CSE2030</t>
   </si>
 </sst>
 </file>
@@ -806,18 +841,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="1" max="1" width="13.69140625" customWidth="1"/>
-    <col min="3" max="3" width="62.15234375" customWidth="1"/>
-    <col min="4" max="4" width="35.69140625" customWidth="1"/>
+    <col min="1" max="1" width="13.6796875" customWidth="1"/>
+    <col min="3" max="3" width="62.1328125" customWidth="1"/>
+    <col min="4" max="4" width="35.6796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -834,7 +869,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -848,7 +883,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="31" x14ac:dyDescent="0.85">
       <c r="B3">
         <v>2</v>
       </c>
@@ -859,7 +894,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B4">
         <v>3</v>
       </c>
@@ -870,7 +905,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B5">
         <v>4</v>
       </c>
@@ -881,7 +916,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B6">
         <v>5</v>
       </c>
@@ -892,7 +927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -909,7 +944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B8">
         <v>7</v>
       </c>
@@ -923,7 +958,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B9">
         <v>8</v>
       </c>
@@ -937,7 +972,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B10">
         <v>9</v>
       </c>
@@ -951,7 +986,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B11">
         <v>10</v>
       </c>
@@ -965,7 +1000,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B12">
         <v>11</v>
       </c>
@@ -979,7 +1014,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B13">
         <v>12</v>
       </c>
@@ -993,7 +1028,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B14">
         <v>13</v>
       </c>
@@ -1007,7 +1042,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B15">
         <v>14</v>
       </c>
@@ -1021,7 +1056,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B16">
         <v>15</v>
       </c>
@@ -1035,7 +1070,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1052,7 +1087,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B18">
         <v>17</v>
       </c>
@@ -1066,7 +1101,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B19">
         <v>18</v>
       </c>
@@ -1080,7 +1115,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B20">
         <v>19</v>
       </c>
@@ -1094,7 +1129,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B21">
         <v>20</v>
       </c>
@@ -1108,7 +1143,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B22">
         <v>21</v>
       </c>
@@ -1122,7 +1157,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B23">
         <v>22</v>
       </c>
@@ -1136,7 +1171,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B24">
         <v>23</v>
       </c>
@@ -1150,7 +1185,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1167,7 +1202,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B26">
         <v>25</v>
       </c>
@@ -1181,7 +1216,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B27">
         <v>26</v>
       </c>
@@ -1195,7 +1230,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B28">
         <v>27</v>
       </c>
@@ -1209,7 +1244,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B29">
         <v>28</v>
       </c>
@@ -1223,7 +1258,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B30">
         <v>29</v>
       </c>
@@ -1237,7 +1272,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B31">
         <v>30</v>
       </c>
@@ -1251,7 +1286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.85">
       <c r="B32">
         <v>31</v>
       </c>
@@ -1265,7 +1300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" ht="31" x14ac:dyDescent="0.85">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1282,7 +1317,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" ht="31" x14ac:dyDescent="0.85">
       <c r="B34">
         <v>33</v>
       </c>
@@ -1296,7 +1331,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.85">
       <c r="B35">
         <v>34</v>
       </c>
@@ -1310,7 +1345,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.85">
       <c r="B36">
         <v>35</v>
       </c>
@@ -1324,7 +1359,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.85">
       <c r="B37">
         <v>36</v>
       </c>
@@ -1341,7 +1376,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.85">
       <c r="B38">
         <v>37</v>
       </c>
@@ -1355,7 +1390,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.85">
       <c r="B39">
         <v>38</v>
       </c>
@@ -1369,7 +1404,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.85">
       <c r="B40">
         <v>39</v>
       </c>
@@ -1386,7 +1421,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.85">
       <c r="B43" t="s">
         <v>34</v>
       </c>
@@ -1397,7 +1432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.85">
       <c r="B44" t="s">
         <v>40</v>
       </c>
@@ -1408,7 +1443,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.85">
       <c r="B45" t="s">
         <v>40</v>
       </c>
@@ -1428,15 +1463,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAC11A2-BBB9-42EF-BE59-34D9C61D443A}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.85"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A1" s="5" t="s">
         <v>82</v>
       </c>
@@ -1448,11 +1483,152 @@
       </c>
       <c r="D1" s="5" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1464,9 +1640,9 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.85"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A1" s="5" t="s">
         <v>82</v>
       </c>
@@ -1495,9 +1671,9 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.85"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A1" s="5" t="s">
         <v>82</v>
       </c>
@@ -1525,9 +1701,9 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.85"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A1" s="5" t="s">
         <v>82</v>
       </c>
@@ -1556,9 +1732,9 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.85"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A1" s="5" t="s">
         <v>82</v>
       </c>
@@ -1586,12 +1762,12 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.85"/>
   <cols>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A1" s="5" t="s">
         <v>82</v>
       </c>
@@ -1622,9 +1798,9 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.85"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A1" s="7" t="s">
         <v>86</v>
       </c>
@@ -1646,7 +1822,7 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A2" s="5" t="s">
         <v>82</v>
       </c>

--- a/TestProject/TestProject/wwwroot/upload/testtest.xlsx
+++ b/TestProject/TestProject/wwwroot/upload/testtest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정동구\Downloads\TestProject\TestProject\wwwroot\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66A0648-AABB-4FF4-A738-637A8CBA7FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDCB609-E5D2-4011-BDDE-9B9543DA9354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="20660" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="100">
   <si>
     <t>입력하려는 졸업기준의 학과(전공)명을 선택하세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -419,6 +419,10 @@
   </si>
   <si>
     <t>CSE2030</t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -845,14 +849,14 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.6796875" customWidth="1"/>
-    <col min="3" max="3" width="62.1328125" customWidth="1"/>
-    <col min="4" max="4" width="35.6796875" customWidth="1"/>
+    <col min="1" max="1" width="13.69140625" customWidth="1"/>
+    <col min="3" max="3" width="62.15234375" customWidth="1"/>
+    <col min="4" max="4" width="35.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -869,7 +873,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -883,7 +887,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="31" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>2</v>
       </c>
@@ -894,7 +898,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>3</v>
       </c>
@@ -905,7 +909,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>4</v>
       </c>
@@ -916,7 +920,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>5</v>
       </c>
@@ -927,7 +931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -944,7 +948,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>7</v>
       </c>
@@ -958,7 +962,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>8</v>
       </c>
@@ -972,7 +976,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>9</v>
       </c>
@@ -986,7 +990,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>10</v>
       </c>
@@ -1000,7 +1004,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>11</v>
       </c>
@@ -1014,7 +1018,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>12</v>
       </c>
@@ -1028,7 +1032,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>13</v>
       </c>
@@ -1042,7 +1046,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>14</v>
       </c>
@@ -1056,7 +1060,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>15</v>
       </c>
@@ -1070,7 +1074,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1087,7 +1091,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>17</v>
       </c>
@@ -1101,7 +1105,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>18</v>
       </c>
@@ -1115,7 +1119,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>19</v>
       </c>
@@ -1129,7 +1133,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>20</v>
       </c>
@@ -1143,7 +1147,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>21</v>
       </c>
@@ -1157,7 +1161,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>22</v>
       </c>
@@ -1171,7 +1175,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>23</v>
       </c>
@@ -1185,7 +1189,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1202,7 +1206,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>25</v>
       </c>
@@ -1216,7 +1220,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>26</v>
       </c>
@@ -1230,7 +1234,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>27</v>
       </c>
@@ -1244,7 +1248,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>28</v>
       </c>
@@ -1258,7 +1262,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>29</v>
       </c>
@@ -1272,7 +1276,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>30</v>
       </c>
@@ -1286,7 +1290,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>31</v>
       </c>
@@ -1300,7 +1304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="31" x14ac:dyDescent="0.85">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1317,7 +1321,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="31" x14ac:dyDescent="0.85">
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>33</v>
       </c>
@@ -1331,7 +1335,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.85">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>34</v>
       </c>
@@ -1345,7 +1349,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.85">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>35</v>
       </c>
@@ -1359,7 +1363,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.85">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>36</v>
       </c>
@@ -1376,7 +1380,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.85">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>37</v>
       </c>
@@ -1390,7 +1394,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.85">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>38</v>
       </c>
@@ -1404,7 +1408,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.85">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>39</v>
       </c>
@@ -1421,7 +1425,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.85">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>34</v>
       </c>
@@ -1432,7 +1436,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.85">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>40</v>
       </c>
@@ -1443,7 +1447,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.85">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>40</v>
       </c>
@@ -1465,13 +1469,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAC11A2-BBB9-42EF-BE59-34D9C61D443A}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>82</v>
       </c>
@@ -1485,7 +1489,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -1499,7 +1503,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -1513,7 +1517,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -1527,7 +1531,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -1541,7 +1545,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -1555,7 +1559,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -1569,7 +1573,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -1583,7 +1587,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -1597,7 +1601,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -1611,7 +1615,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -1634,15 +1638,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9231BD3C-C574-4DB0-B1F2-BD90CA008542}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A2" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>82</v>
       </c>
@@ -1654,6 +1658,146 @@
       </c>
       <c r="D1" s="5" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1665,15 +1809,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25EDB01F-9754-4355-A9BA-6E88D0997F30}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A2" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>82</v>
       </c>
@@ -1685,6 +1829,146 @@
       </c>
       <c r="D1" s="5" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1695,15 +1979,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA95D603-32CE-42AF-9B2B-D8D51D1AF884}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="A2" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>82</v>
       </c>
@@ -1717,6 +2001,146 @@
         <v>84</v>
       </c>
       <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1726,15 +2150,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18208AA2-0172-4994-AE9F-2CDB660A6EA4}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A2" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>82</v>
       </c>
@@ -1746,6 +2170,146 @@
       </c>
       <c r="D1" s="5" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1756,18 +2320,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F774FD-DC5C-4658-AAB4-B10DE1E5F036}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="157" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>82</v>
       </c>
@@ -1782,11 +2346,182 @@
       </c>
       <c r="E1" s="5" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1795,12 +2530,12 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView zoomScale="143" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>86</v>
       </c>
@@ -1822,7 +2557,7 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>82</v>
       </c>

--- a/TestProject/TestProject/wwwroot/upload/testtest.xlsx
+++ b/TestProject/TestProject/wwwroot/upload/testtest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정동구\Downloads\TestProject\TestProject\wwwroot\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/GraduationAssessment/GraduationAssesment/TestProject/TestProject/wwwroot/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDCB609-E5D2-4011-BDDE-9B9543DA9354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499F9ED1-B936-FB4C-BF30-8B3FFFA8FD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22140" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="134">
   <si>
     <t>입력하려는 졸업기준의 학과(전공)명을 선택하세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,14 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">사전에 입력된 입학년도의 정보를 불러오시겠습니까? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">사전에 입력된 교육과정 적용년도 정보를 불러오시겠습니까? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본소양 이수학점 기준을 입력하세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,22 +150,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예외기준1을 입력하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(학과별 확인필요)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MSC 대체인정 과목을 입력하세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>개별연구 설계학점 인정여부를 입력하세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보류항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학수번호, 학점, 설계학점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선택형 (불러올 년도, 아니오)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대상 (인정, 비인정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,6 +394,170 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI3003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI3004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI3005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI3006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI3007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI3008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI3009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI3010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI2004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI2005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI2006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI2007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI2008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI2009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI2010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +565,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -843,37 +979,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.69140625" customWidth="1"/>
-    <col min="3" max="3" width="62.15234375" customWidth="1"/>
-    <col min="4" max="4" width="35.69140625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="62.1640625" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -883,55 +1023,55 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.45">
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="32">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -941,140 +1081,140 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
       <c r="E7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1082,380 +1222,347 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="B26">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="B27">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="B28">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="B29">
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="B30">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+      <c r="F30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="B31">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="B32">
         <v>31</v>
       </c>
       <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="32">
+      <c r="A33" t="s">
         <v>28</v>
-      </c>
-      <c r="D32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>30</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="32">
       <c r="B34">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="B35">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+      <c r="F35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="B36">
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="B37">
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" t="s">
         <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+      <c r="G37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="B38">
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="B39">
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="B40">
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="G40" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1469,164 +1576,164 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAC11A2-BBB9-42EF-BE59-34D9C61D443A}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D11"/>
+    <sheetView zoomScale="165" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" t="s">
-        <v>89</v>
+        <v>102</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -1640,164 +1747,164 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9231BD3C-C574-4DB0-B1F2-BD90CA008542}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D11"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" t="s">
-        <v>89</v>
+        <v>132</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -1815,160 +1922,160 @@
       <selection activeCell="A2" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>88</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>90</v>
       </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>91</v>
       </c>
-      <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>98</v>
-      </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1985,161 +2092,161 @@
       <selection activeCell="A2" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>88</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>90</v>
       </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>91</v>
       </c>
-      <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>98</v>
-      </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2156,160 +2263,160 @@
       <selection activeCell="A2" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>88</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>90</v>
       </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>91</v>
       </c>
-      <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>98</v>
-      </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2322,200 +2429,200 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F774FD-DC5C-4658-AAB4-B10DE1E5F036}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+    <sheetView zoomScale="157" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>88</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>90</v>
       </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>91</v>
       </c>
-      <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
         <v>92</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2533,66 +2640,66 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12">
       <c r="A1" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/TestProject/TestProject/wwwroot/upload/testtest.xlsx
+++ b/TestProject/TestProject/wwwroot/upload/testtest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/GraduationAssessment/GraduationAssesment/TestProject/TestProject/wwwroot/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499F9ED1-B936-FB4C-BF30-8B3FFFA8FD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4363C599-6BD9-9640-AB49-B4BD108BD87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22140" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <sheet name="MSC" sheetId="5" r:id="rId6"/>
     <sheet name="전공필수" sheetId="6" r:id="rId7"/>
     <sheet name="유사교과목(대체교과목)" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="138">
   <si>
     <t>입력하려는 졸업기준의 학과(전공)명을 선택하세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -558,6 +559,22 @@
   </si>
   <si>
     <t>입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신입학생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -981,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1023,6 +1040,9 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
       <c r="E2" t="s">
         <v>32</v>
       </c>
@@ -1034,6 +1054,9 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
       <c r="E3" s="3" t="s">
         <v>33</v>
       </c>
@@ -1045,6 +1068,9 @@
       <c r="C4" t="s">
         <v>45</v>
       </c>
+      <c r="D4" t="s">
+        <v>136</v>
+      </c>
       <c r="E4" t="s">
         <v>46</v>
       </c>
@@ -1056,6 +1082,9 @@
       <c r="C5" t="s">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>2016</v>
+      </c>
       <c r="E5" t="s">
         <v>34</v>
       </c>
@@ -1067,6 +1096,9 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
+      <c r="D6">
+        <v>2016</v>
+      </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
@@ -1109,6 +1141,9 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
       <c r="E9" t="s">
         <v>25</v>
       </c>
@@ -1151,6 +1186,9 @@
       <c r="C12" t="s">
         <v>53</v>
       </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
       <c r="E12" t="s">
         <v>25</v>
       </c>
@@ -1207,6 +1245,9 @@
       <c r="C16" t="s">
         <v>13</v>
       </c>
+      <c r="D16">
+        <v>28</v>
+      </c>
       <c r="E16" t="s">
         <v>25</v>
       </c>
@@ -1238,6 +1279,9 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
+      <c r="D18">
+        <v>42</v>
+      </c>
       <c r="E18" t="s">
         <v>25</v>
       </c>
@@ -1252,6 +1296,9 @@
       <c r="C19" t="s">
         <v>14</v>
       </c>
+      <c r="D19">
+        <v>84</v>
+      </c>
       <c r="E19" t="s">
         <v>25</v>
       </c>
@@ -1339,6 +1386,9 @@
       <c r="C25" t="s">
         <v>41</v>
       </c>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
       <c r="E25" t="s">
         <v>55</v>
       </c>
@@ -1353,6 +1403,9 @@
       <c r="C26" t="s">
         <v>42</v>
       </c>
+      <c r="D26" t="s">
+        <v>92</v>
+      </c>
       <c r="E26" t="s">
         <v>55</v>
       </c>
@@ -1367,6 +1420,9 @@
       <c r="C27" t="s">
         <v>51</v>
       </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
       <c r="E27" t="s">
         <v>43</v>
       </c>
@@ -1381,6 +1437,9 @@
       <c r="C28" t="s">
         <v>52</v>
       </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
       <c r="E28" t="s">
         <v>43</v>
       </c>
@@ -1395,6 +1454,9 @@
       <c r="C29" t="s">
         <v>44</v>
       </c>
+      <c r="D29" t="s">
+        <v>137</v>
+      </c>
       <c r="E29" t="s">
         <v>55</v>
       </c>
@@ -1409,6 +1471,9 @@
       <c r="C30" t="s">
         <v>47</v>
       </c>
+      <c r="D30" t="s">
+        <v>137</v>
+      </c>
       <c r="E30" t="s">
         <v>55</v>
       </c>
@@ -1423,6 +1488,9 @@
       <c r="C31" t="s">
         <v>22</v>
       </c>
+      <c r="D31">
+        <v>140</v>
+      </c>
       <c r="E31" t="s">
         <v>25</v>
       </c>
@@ -1437,6 +1505,9 @@
       <c r="C32" t="s">
         <v>26</v>
       </c>
+      <c r="D32">
+        <v>2.5</v>
+      </c>
       <c r="E32" t="s">
         <v>27</v>
       </c>
@@ -1482,6 +1553,9 @@
       <c r="C35" t="s">
         <v>30</v>
       </c>
+      <c r="D35" t="s">
+        <v>137</v>
+      </c>
       <c r="E35" t="s">
         <v>54</v>
       </c>
@@ -1496,6 +1570,9 @@
       <c r="C36" t="s">
         <v>48</v>
       </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
       <c r="E36" t="s">
         <v>25</v>
       </c>
@@ -1510,6 +1587,9 @@
       <c r="C37" t="s">
         <v>61</v>
       </c>
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
       <c r="E37" t="s">
         <v>54</v>
       </c>
@@ -1527,6 +1607,9 @@
       <c r="C38" t="s">
         <v>62</v>
       </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
       <c r="E38" t="s">
         <v>25</v>
       </c>
@@ -1540,6 +1623,9 @@
       </c>
       <c r="C39" t="s">
         <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
       </c>
       <c r="E39" t="s">
         <v>54</v>
@@ -1577,7 +1663,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2712,4 +2798,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993884BE-283C-BC42-97CF-C46125B7C789}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestProject/TestProject/wwwroot/upload/testtest.xlsx
+++ b/TestProject/TestProject/wwwroot/upload/testtest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/GraduationAssessment/GraduationAssesment/TestProject/TestProject/wwwroot/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4363C599-6BD9-9640-AB49-B4BD108BD87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76B50A2-6958-9B46-8BA2-00D0A9FF2D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22140" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10700" yWindow="460" windowWidth="22140" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="137">
   <si>
     <t>입력하려는 졸업기준의 학과(전공)명을 선택하세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,14 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"총취득학점"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"평점평균"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -575,6 +567,10 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">메이플학 필수 과목을 입력하세요. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -996,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1012,22 +1008,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1041,10 +1037,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32">
@@ -1055,10 +1051,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1066,13 +1062,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1086,7 +1082,7 @@
         <v>2016</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1100,7 +1096,7 @@
         <v>2016</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1114,10 +1110,10 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1125,13 +1121,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1145,10 +1141,10 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1159,10 +1155,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1173,10 +1169,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1184,16 +1180,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1204,10 +1200,10 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1218,437 +1214,457 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27">
         <v>25</v>
       </c>
-      <c r="F16" t="s">
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18">
+    <row r="30" spans="1:7">
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
         <v>42</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <v>140</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33">
+        <v>2.5</v>
+      </c>
+      <c r="E33" t="s">
         <v>25</v>
       </c>
-      <c r="F18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>84</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="F33" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27">
+    <row r="34" spans="1:7" ht="32">
+      <c r="A34" t="s">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="B30">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31">
-        <v>140</v>
-      </c>
-      <c r="E31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="B32">
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32">
-        <v>2.5</v>
-      </c>
-      <c r="E32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="32">
-      <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33">
+      <c r="B34">
         <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="32">
-      <c r="B34">
-        <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="32">
       <c r="B35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" t="s">
-        <v>137</v>
-      </c>
-      <c r="E35" t="s">
-        <v>54</v>
+        <v>27</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="F35" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="B36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="B37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" t="s">
-        <v>92</v>
+        <v>46</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="B38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="D38" t="s">
+        <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F38" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G38" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="B39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" t="s">
-        <v>92</v>
+        <v>60</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" t="s">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="B41">
         <v>39</v>
       </c>
-      <c r="C40" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="C41" t="s">
         <v>35</v>
       </c>
-      <c r="F40" t="s">
-        <v>74</v>
-      </c>
-      <c r="G40" t="s">
-        <v>50</v>
+      <c r="E41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G41" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1670,24 +1686,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1698,10 +1714,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1712,10 +1728,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1726,10 +1742,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1740,10 +1756,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1754,10 +1770,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1768,10 +1784,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1782,10 +1798,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1796,10 +1812,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1810,10 +1826,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -1841,24 +1857,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1869,10 +1885,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1883,10 +1899,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1897,10 +1913,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1911,10 +1927,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1925,10 +1941,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1939,10 +1955,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1953,10 +1969,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1967,10 +1983,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1981,10 +1997,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -2012,156 +2028,156 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2182,157 +2198,157 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2353,156 +2369,156 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2526,189 +2542,189 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
         <v>90</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2730,62 +2746,62 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="D2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="G2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="J2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
